--- a/Outline.xlsx
+++ b/Outline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slynn\Documents\Revature\P2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slynn\Documents\Revature\proj2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6216FB11-1C3D-45DB-9272-5D1803CAFD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80112810-9A60-418A-82E0-755C7E8F2CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-144" windowWidth="23256" windowHeight="12576" xr2:uid="{93ED177C-6CC7-404F-99FB-02024087B03E}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
   <si>
     <t>Log In</t>
   </si>
@@ -76,18 +77,6 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>Delete</t>
-  </si>
-  <si>
     <t>Doctor verifies</t>
   </si>
   <si>
@@ -109,9 +98,6 @@
     <t>Insurance information</t>
   </si>
   <si>
-    <t>send to Dr.</t>
-  </si>
-  <si>
     <t>Send to Insurance Provider</t>
   </si>
   <si>
@@ -139,21 +125,12 @@
     <t>p2.policy</t>
   </si>
   <si>
-    <t>WebAPI</t>
-  </si>
-  <si>
     <t>Data Layer Methods</t>
   </si>
   <si>
     <t>Menu</t>
   </si>
   <si>
-    <t>put?</t>
-  </si>
-  <si>
-    <t>CreateNewClaim()</t>
-  </si>
-  <si>
     <t>ViewAllClaims()</t>
   </si>
   <si>
@@ -163,24 +140,12 @@
     <t>UpdateClaim()</t>
   </si>
   <si>
-    <t>UpdateContactInformation()</t>
-  </si>
-  <si>
-    <t>DeleteClaim()</t>
-  </si>
-  <si>
-    <t>UpdateInsuranceinformation()</t>
-  </si>
-  <si>
     <t>ViewByClaimNumber()</t>
   </si>
   <si>
     <t>ViewByUserID()</t>
   </si>
   <si>
-    <t>ViewDoctorInformation()</t>
-  </si>
-  <si>
     <t>RequestAdditionalInformation()</t>
   </si>
   <si>
@@ -193,44 +158,101 @@
     <t>VerifyInsurancePolicy()</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>Users : Iusers</t>
-  </si>
-  <si>
-    <t>Claims : Iclaims</t>
-  </si>
-  <si>
-    <t>Contact : Icontact</t>
-  </si>
-  <si>
-    <t>Policy : Ipolicy</t>
-  </si>
-  <si>
-    <t>ViewInsuranceInformation()</t>
-  </si>
-  <si>
-    <t>ResetPassword()</t>
-  </si>
-  <si>
-    <t>Register()</t>
-  </si>
-  <si>
-    <t>ViewUsersByID()</t>
-  </si>
-  <si>
-    <t>ViewUsersByUsername()</t>
-  </si>
-  <si>
-    <t>VerifyInsuranceInformation()?</t>
+    <t>View All Claims</t>
+  </si>
+  <si>
+    <t>View Pending Claims</t>
+  </si>
+  <si>
+    <t>View Denied Claims</t>
+  </si>
+  <si>
+    <t>View Approved Claims</t>
+  </si>
+  <si>
+    <t>Create a Claim Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a New Claim </t>
+  </si>
+  <si>
+    <t>Update Claim</t>
+  </si>
+  <si>
+    <t>Update Contact Information</t>
+  </si>
+  <si>
+    <t>Delete Claim</t>
+  </si>
+  <si>
+    <t>4.)</t>
+  </si>
+  <si>
+    <t>5.)</t>
+  </si>
+  <si>
+    <t>6.)</t>
+  </si>
+  <si>
+    <t>Update Insurance Information</t>
+  </si>
+  <si>
+    <t>View Insurance Information</t>
+  </si>
+  <si>
+    <t>Displays Insurance Information</t>
+  </si>
+  <si>
+    <t>Delete Insurance Information</t>
+  </si>
+  <si>
+    <t>Displays Update Insurance Form</t>
+  </si>
+  <si>
+    <t>Displays List of All Claims</t>
+  </si>
+  <si>
+    <t>Additional Options</t>
+  </si>
+  <si>
+    <t>Displays Update Contacts Form</t>
+  </si>
+  <si>
+    <t>7.)</t>
+  </si>
+  <si>
+    <t>Page Contents</t>
+  </si>
+  <si>
+    <t>1.) Update Claim</t>
+  </si>
+  <si>
+    <t>2.) Delete Claim</t>
+  </si>
+  <si>
+    <t>1.) Delete Claim</t>
+  </si>
+  <si>
+    <t>1.) Resubmit Claim?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universal Footer </t>
+  </si>
+  <si>
+    <t>Contact us</t>
+  </si>
+  <si>
+    <t>FAQ</t>
+  </si>
+  <si>
+    <t>Discussion Board</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,8 +268,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,8 +297,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -362,10 +397,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -381,9 +418,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
+    <cellStyle name="20% - Accent6" xfId="2" builtinId="50"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -671,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA9E826-EB56-48E7-AF0E-D28023B0DA7B}">
-  <dimension ref="C3:K53"/>
+  <dimension ref="C3:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -683,27 +723,27 @@
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.25" customWidth="1"/>
-    <col min="8" max="8" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.375" customWidth="1"/>
-    <col min="13" max="13" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.25" customWidth="1"/>
+    <col min="9" max="9" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.375" customWidth="1"/>
+    <col min="15" max="15" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D3" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="G3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="H3" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -716,417 +756,394 @@
       <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="G7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="G8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="G9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="G10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="G11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="G12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="G13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="G14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="F16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="F19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="F23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="F24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
         <v>39</v>
       </c>
-      <c r="H6" t="s">
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" t="s">
+        <v>12</v>
+      </c>
+      <c r="K37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" t="s">
+    <row r="44" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D44" s="8"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="9"/>
+      <c r="H44" s="10"/>
+    </row>
+    <row r="45" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D45" s="11"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="12"/>
+      <c r="H45" s="13" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="G9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="G10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="G12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="E16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="F17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="F18" s="2"/>
-      <c r="G18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="F19" s="2"/>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="F20" s="2"/>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="F21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="F22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="F23" s="1"/>
-      <c r="G23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="F24" s="1"/>
-      <c r="G24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="F27" s="2"/>
-      <c r="G27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="F28" s="2"/>
-      <c r="G28" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="F29" s="1"/>
-      <c r="G29" t="s">
-        <v>48</v>
-      </c>
-      <c r="H29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="G30" t="s">
-        <v>51</v>
-      </c>
-      <c r="H30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="G31" t="s">
-        <v>49</v>
-      </c>
-      <c r="H31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="G32" t="s">
-        <v>50</v>
-      </c>
-      <c r="H32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="E35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="E36" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="E37" t="s">
-        <v>28</v>
-      </c>
-      <c r="F37" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D41" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D42" s="8"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" s="10"/>
-    </row>
-    <row r="43" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D43" s="11"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D46" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D47" t="s">
-        <v>53</v>
-      </c>
-      <c r="F47" t="s">
-        <v>59</v>
-      </c>
-      <c r="G47" t="s">
-        <v>58</v>
-      </c>
-      <c r="H47" t="s">
-        <v>60</v>
-      </c>
-      <c r="I47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D49" t="s">
-        <v>54</v>
-      </c>
-      <c r="F49" t="s">
-        <v>38</v>
-      </c>
-      <c r="G49" t="s">
-        <v>39</v>
-      </c>
-      <c r="H49" t="s">
-        <v>40</v>
-      </c>
-      <c r="I49" t="s">
-        <v>41</v>
-      </c>
-      <c r="J49" t="s">
-        <v>43</v>
-      </c>
-      <c r="K49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D51" t="s">
-        <v>55</v>
-      </c>
-      <c r="F51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G51" t="s">
-        <v>42</v>
-      </c>
-      <c r="H51" t="s">
-        <v>49</v>
-      </c>
-      <c r="I51" t="s">
-        <v>50</v>
-      </c>
-      <c r="J51" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D53" t="s">
-        <v>56</v>
-      </c>
-      <c r="F53" t="s">
-        <v>44</v>
-      </c>
-      <c r="G53" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
